--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,34 +43,31 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>cheap</t>
   </si>
   <si>
     <t>negative</t>
@@ -79,121 +76,148 @@
     <t>loves</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>friends</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>popcorn</t>
@@ -202,238 +226,211 @@
     <t>nicely</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>simple</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>fan</t>
   </si>
   <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>making</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
     <t>maker</t>
   </si>
   <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>anyone</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>dish</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>make</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>big</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>also</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>easily</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>ox</t>
+    <t>one</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
     <t>lot</t>
   </si>
   <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>like</t>
   </si>
   <si>
     <t>got</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>much</t>
   </si>
   <si>
     <t>product</t>
@@ -808,10 +805,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -869,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -887,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -911,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -919,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -937,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -961,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -969,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5849056603773585</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -987,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8746130030959752</v>
+        <v>0.921875</v>
       </c>
       <c r="L5">
-        <v>565</v>
+        <v>118</v>
       </c>
       <c r="M5">
-        <v>565</v>
+        <v>118</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1011,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1019,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5193798449612403</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1037,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8869969040247678</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>573</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>573</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1069,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5151515151515151</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1087,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8620689655172413</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1111,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1119,13 +1116,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.44</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1137,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1161,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1169,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3461538461538461</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1187,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1211,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1219,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2444444444444444</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1237,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1261,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1269,13 +1266,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2324324324324324</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1287,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7322033898305085</v>
+        <v>0.7445887445887446</v>
       </c>
       <c r="L11">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="M11">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1311,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1319,87 +1316,63 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2203389830508475</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="C12">
         <v>26</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.7322033898305085</v>
+      </c>
+      <c r="L12">
+        <v>216</v>
+      </c>
+      <c r="M12">
+        <v>216</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.7272727272727273</v>
       </c>
-      <c r="L12">
-        <v>32</v>
-      </c>
-      <c r="M12">
-        <v>32</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2135922330097087</v>
-      </c>
-      <c r="C13">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>81</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.7123287671232876</v>
-      </c>
       <c r="L13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1416,16 +1389,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1437,21 +1410,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1463,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6875502008032128</v>
+        <v>0.6875</v>
       </c>
       <c r="L16">
-        <v>856</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>857</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1486,24 +1459,24 @@
         <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>389</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6875</v>
+        <v>0.6813804173354735</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>849</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>849</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1515,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1541,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.673469387755102</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1567,12 +1540,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20">
         <v>0.6571428571428571</v>
@@ -1598,16 +1571,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6493506493506493</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1619,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6447368421052632</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1645,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.640625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6323529411764706</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1697,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L25">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1723,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.6274509803921569</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1749,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6197183098591549</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1775,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6153846153846154</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1801,47 +1774,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6111111111111112</v>
+        <v>0.6084337349397591</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1853,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5918367346938775</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1879,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5901639344262295</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1905,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5873015873015873</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1931,21 +1904,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.5865384615384616</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1957,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.5811965811965812</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L35">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1983,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.5645161290322581</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2009,21 +1982,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.5421686746987951</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2035,21 +2008,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.53</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L38">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2061,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5263157894736842</v>
+        <v>0.51</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2087,47 +2060,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.5149700598802395</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="L40">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.5120481927710844</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L41">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2139,21 +2112,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.5037593984962406</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L42">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M42">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2165,21 +2138,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2191,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2217,21 +2190,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>28</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.4444444444444444</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2243,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.4362745098039216</v>
+        <v>0.4319066147859922</v>
       </c>
       <c r="L46">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="M46">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2269,73 +2242,73 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>230</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.4272727272727272</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.4264705882352941</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.4085603112840467</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L49">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2347,21 +2320,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>152</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.4074074074074074</v>
+        <v>0.4027397260273973</v>
       </c>
       <c r="L50">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2373,47 +2346,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>48</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.3972602739726027</v>
+        <v>0.3985507246376812</v>
       </c>
       <c r="L51">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="M51">
-        <v>290</v>
+        <v>56</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>440</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.3928571428571428</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2425,21 +2398,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.3873873873873874</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L53">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2451,21 +2424,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.3861386138613861</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L54">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2477,21 +2450,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.3833333333333334</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2503,21 +2476,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K56">
-        <v>0.3741007194244604</v>
+        <v>0.375</v>
       </c>
       <c r="L56">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2529,47 +2502,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.3732057416267943</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="L57">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M57">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.3611111111111111</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L58">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M58">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2581,47 +2554,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K59">
-        <v>0.3472222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.34375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2633,21 +2606,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.3311258278145696</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L61">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2659,21 +2632,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.3308270676691729</v>
+        <v>0.3245033112582781</v>
       </c>
       <c r="L62">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M62">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2685,21 +2658,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.3293864370290635</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L63">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="M63">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2711,21 +2684,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>623</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.3194444444444444</v>
+        <v>0.3153928955866523</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="M64">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2737,21 +2710,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>49</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.3008849557522124</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L65">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2763,21 +2736,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.2944297082228117</v>
+        <v>0.3034571062740077</v>
       </c>
       <c r="L66">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M66">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2789,21 +2762,21 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.2823529411764706</v>
+        <v>0.3033112582781457</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2815,21 +2788,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>61</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="L68">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2841,41 +2814,41 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.2794871794871795</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L69">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="N69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>562</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.2650602409638554</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L70">
         <v>22</v>
@@ -2893,47 +2866,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.2619047619047619</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M71">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.2539184952978056</v>
+        <v>0.2751677852348993</v>
       </c>
       <c r="L72">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="M72">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2945,99 +2918,99 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>238</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.2527472527472527</v>
+        <v>0.2664576802507837</v>
       </c>
       <c r="L73">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="M73">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="N73">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>340</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.25</v>
+        <v>0.2650273224043716</v>
       </c>
       <c r="L74">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="M74">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>111</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.2473118279569892</v>
+        <v>0.25</v>
       </c>
       <c r="L75">
         <v>23</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.2393162393162393</v>
+        <v>0.25</v>
       </c>
       <c r="L76">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3049,73 +3022,73 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.2385321100917431</v>
+        <v>0.2489451476793249</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M77">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>83</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.2377049180327869</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L78">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="M78">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N78">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>279</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.2377049180327869</v>
+        <v>0.2346491228070176</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M79">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3127,21 +3100,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>93</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.2310924369747899</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L80">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M80">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3153,21 +3126,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>183</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.2214022140221402</v>
+        <v>0.225609756097561</v>
       </c>
       <c r="L81">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M81">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3179,99 +3152,99 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>211</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>0.2200956937799043</v>
+        <v>0.2208588957055215</v>
       </c>
       <c r="L82">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="M82">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N82">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>326</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>0.219047619047619</v>
+        <v>0.2148148148148148</v>
       </c>
       <c r="L83">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="M83">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>82</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.2147239263803681</v>
+        <v>0.2092457420924574</v>
       </c>
       <c r="L84">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="M84">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="N84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>128</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K85">
-        <v>0.2123893805309734</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M85">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3283,73 +3256,73 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K86">
-        <v>0.2115384615384615</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L86">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M86">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.2015503875968992</v>
+        <v>0.2057416267942584</v>
       </c>
       <c r="L87">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M87">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>103</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K88">
-        <v>0.2</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L88">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M88">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3361,47 +3334,47 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>216</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K89">
-        <v>0.2</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L89">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M89">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N89">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K90">
-        <v>0.2</v>
+        <v>0.1977272727272727</v>
       </c>
       <c r="L90">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="M90">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3413,21 +3386,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>104</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K91">
-        <v>0.196319018404908</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L91">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M91">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3439,47 +3412,47 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K92">
-        <v>0.193621867881549</v>
+        <v>0.1933085501858736</v>
       </c>
       <c r="L92">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="M92">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="N92">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O92">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>354</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K93">
-        <v>0.192090395480226</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="L93">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M93">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3491,99 +3464,99 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K94">
-        <v>0.19</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L94">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M94">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N94">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K95">
-        <v>0.1878048780487805</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L95">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="M95">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N95">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>333</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K96">
-        <v>0.1818181818181818</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="L96">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M96">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K97">
-        <v>0.1718213058419244</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L97">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M97">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3595,229 +3568,229 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>241</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K98">
-        <v>0.1696969696969697</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L98">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M98">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K99">
-        <v>0.1690140845070423</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M99">
         <v>26</v>
       </c>
       <c r="N99">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O99">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K100">
-        <v>0.1679389312977099</v>
+        <v>0.1620689655172414</v>
       </c>
       <c r="L100">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M100">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
-        <v>109</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K101">
-        <v>0.1642512077294686</v>
+        <v>0.1554054054054054</v>
       </c>
       <c r="L101">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M101">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N101">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>173</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K102">
-        <v>0.1589403973509934</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="L102">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M102">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N102">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>127</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K103">
-        <v>0.158273381294964</v>
+        <v>0.1530054644808743</v>
       </c>
       <c r="L103">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M103">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N103">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>117</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K104">
-        <v>0.1578947368421053</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="L104">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N104">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K105">
-        <v>0.1464968152866242</v>
+        <v>0.147940074906367</v>
       </c>
       <c r="L105">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="M105">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="N105">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="O105">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>134</v>
+        <v>910</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K106">
-        <v>0.1451612903225807</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="L106">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M106">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3829,475 +3802,475 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>212</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K107">
-        <v>0.1376404494382023</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="L107">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="M107">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="N107">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>921</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K108">
-        <v>0.1373626373626374</v>
+        <v>0.1375</v>
       </c>
       <c r="L108">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M108">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="N108">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>314</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K109">
-        <v>0.1358695652173913</v>
+        <v>0.1215629522431259</v>
       </c>
       <c r="L109">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M109">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="N109">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O109">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>159</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K110">
-        <v>0.1224489795918367</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="L110">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M110">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N110">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="O110">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K111">
-        <v>0.120863309352518</v>
+        <v>0.1164205039096438</v>
       </c>
       <c r="L111">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="M111">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="N111">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O111">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>611</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K112">
-        <v>0.1205128205128205</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L112">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M112">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N112">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O112">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>343</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K113">
-        <v>0.1148148148148148</v>
+        <v>0.1075794621026895</v>
       </c>
       <c r="L113">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M113">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N113">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="O113">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>478</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K114">
-        <v>0.1127622377622378</v>
+        <v>0.100418410041841</v>
       </c>
       <c r="L114">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="M114">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="N114">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>1015</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K115">
-        <v>0.09926470588235294</v>
+        <v>0.09851301115241635</v>
       </c>
       <c r="L115">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="M115">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>245</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K116">
-        <v>0.09623430962343096</v>
+        <v>0.09020618556701031</v>
       </c>
       <c r="L116">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M116">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>216</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K117">
-        <v>0.0951219512195122</v>
+        <v>0.08356545961002786</v>
       </c>
       <c r="L117">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M117">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N117">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="O117">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>371</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K118">
-        <v>0.09215017064846416</v>
+        <v>0.08317214700193423</v>
       </c>
       <c r="L118">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M118">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N118">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="O118">
-        <v>0.18</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P118" t="b">
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>266</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K119">
-        <v>0.08670520231213873</v>
+        <v>0.07508532423208192</v>
       </c>
       <c r="L119">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M119">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N119">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="O119">
-        <v>0.06000000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>474</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K120">
-        <v>0.08403361344537816</v>
+        <v>0.07479224376731301</v>
       </c>
       <c r="L120">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M120">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N120">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="O120">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K121">
-        <v>0.07917888563049853</v>
+        <v>0.0659025787965616</v>
       </c>
       <c r="L121">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M121">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N121">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="O121">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K122">
-        <v>0.06593406593406594</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L122">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M122">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N122">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="O122">
-        <v>0.04000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K123">
-        <v>0.05843293492695883</v>
+        <v>0.06141522029372497</v>
       </c>
       <c r="L123">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M123">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N123">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="O123">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K124">
-        <v>0.04120879120879121</v>
+        <v>0.04293628808864266</v>
       </c>
       <c r="L124">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M124">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N124">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="O124">
-        <v>0.1899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
